--- a/portfolio/portfolio_table.xlsx
+++ b/portfolio/portfolio_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfmcm\Documents\Tema8-888\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tfmcm\Documents\Tema8-888\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,23 +19,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Gains_Losses</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Beat_Winner</t>
+  </si>
+  <si>
+    <t>Beat_Aggregate</t>
+  </si>
+  <si>
     <t>Winner</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>Basket1</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Basket2</t>
   </si>
   <si>
@@ -63,13 +75,10 @@
     <t>Basket10</t>
   </si>
   <si>
-    <t>Gains Or Losses</t>
-  </si>
-  <si>
-    <t>Beat Winner</t>
-  </si>
-  <si>
-    <t>Beat Aggregate</t>
+    <t>--</t>
+  </si>
+  <si>
+    <t>* Numbers were scaled</t>
   </si>
 </sst>
 </file>
@@ -77,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -215,8 +224,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -518,127 +528,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -681,186 +573,88 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -869,20 +663,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -898,14 +679,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" tableBorderDxfId="6" headerRowCellStyle="Good" dataCellStyle="Good">
-  <tableColumns count="4">
-    <tableColumn id="1" name="Name" dataDxfId="3"/>
-    <tableColumn id="2" name="Gains Or Losses" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="4" name="Beat Winner" dataDxfId="1"/>
-    <tableColumn id="5" name="Beat Aggregate" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" name="Gains_Losses" dataDxfId="3"/>
+    <tableColumn id="3" name="Average" dataDxfId="2"/>
+    <tableColumn id="4" name="Beat_Winner" dataDxfId="1"/>
+    <tableColumn id="5" name="Beat_Aggregate" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1172,193 +954,237 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.22032101330000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.4064202660000003E-2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-0.24914987499999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-4.9829974999999999E-2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.5342810000000402E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.1068562000000099E-2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.153233754</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-3.0646750800000001E-2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1.8234834700000001E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-3.6469669399999999E-3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.34517833990000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-6.9035667980000007E-2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-0.47186263119999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-9.4372526240000004E-2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B9" s="2">
+        <v>-0.39971152430000001</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-7.9942304859999994E-2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="B10" s="2">
+        <v>-7.6404118999999798E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1.5280823799999999E-2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-15.0199889</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6">
-        <v>-14.14000699</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6">
-        <v>-20.120018030000001</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="6">
-        <v>-22.57999787</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>-10.32001874</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6">
-        <v>-15.399990109999999</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6">
-        <v>-9.0200118800000109</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="6">
-        <v>-11.58999835</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6">
-        <v>-9.4600009400000094</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="6">
-        <v>-8.9200058100000206</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="12">
-        <v>-14.119998880000001</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
+      <c r="B11" s="2">
+        <v>-0.31335936819999999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-6.267187364E-2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-0.20474483099999999</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-4.0948966199999999E-2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
